--- a/src/2024-02-10_cny_births.xlsx
+++ b/src/2024-02-10_cny_births.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theveshtheva/git-thevesh/charts/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CED150-0757-894D-95DC-04BE263A26B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C491E6-F163-2149-8DBD-69989383BD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="500" windowWidth="33720" windowHeight="21100" xr2:uid="{0F32D373-AA13-E844-A237-46170FFDB5EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -449,7 +449,7 @@
         <v>2000</v>
       </c>
       <c r="B4">
-        <v>114123</v>
+        <v>115429</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
